--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA9ECB-863B-412D-975A-410D4534BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B520730-A72A-4ECA-97F4-72CB0C8BC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="720" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1283,21 +1283,11 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.0004744823397701E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="G2" s="2">
-        <v>9</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -1308,21 +1298,11 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>11</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -1333,21 +1313,11 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1358,21 +1328,11 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.94125238668197297</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -1383,21 +1343,11 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>11</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -1408,26 +1358,11 @@
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19825142630107412</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>9.6</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -1438,21 +1373,11 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5.0004744823397701E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="G8" s="6">
-        <v>9</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -1463,21 +1388,11 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>11</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -1488,21 +1403,11 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>11</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1513,21 +1418,11 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.94125238668197297</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -1538,21 +1433,11 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>11</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -1563,26 +1448,11 @@
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4">
-        <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19825142630107412</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -1593,21 +1463,11 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.16001863281704901</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="G14" s="2">
-        <v>14</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -1618,21 +1478,11 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G15" s="6">
-        <v>16</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -1643,21 +1493,11 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>11</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -1668,21 +1508,11 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -1693,21 +1523,11 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.40016768754221</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -1718,26 +1538,11 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4">
-        <f>AVERAGE(C14:C18)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.94309397902778758</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.90909090909090773</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -1748,21 +1553,11 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G20" s="1">
-        <v>13</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -1773,21 +1568,11 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G21" s="1">
-        <v>13</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1798,21 +1583,11 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G22" s="6">
-        <v>16</v>
-      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -1823,21 +1598,11 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G23" s="2">
-        <v>6</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -1848,21 +1613,11 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G24" s="1">
-        <v>13</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -1873,26 +1628,11 @@
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4">
-        <f>AVERAGE(C20:C24)</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="3"/>
-        <v>0.33178641963638594</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="3"/>
-        <v>1.1090909090909071</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>12.2</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -1903,21 +1643,11 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G26" s="1">
-        <v>13</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -1928,21 +1658,11 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G27" s="1">
-        <v>13</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -1953,21 +1673,11 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G28" s="1">
-        <v>16</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -1978,21 +1688,11 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G29" s="6">
-        <v>6</v>
-      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -2003,21 +1703,11 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G30" s="1">
-        <v>13</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -2028,26 +1718,11 @@
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4">
-        <f>AVERAGE(C26:C30)</f>
-        <v>1.8000000000000002E-3</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="4"/>
-        <v>0.33178641963638594</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="4"/>
-        <v>1.1090909090909071</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="4"/>
-        <v>12.2</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -2102,15 +1777,16 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2118,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDE5D21-9B2C-4A8C-8F35-7A8D89D64BAD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6223,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DF001-9588-41CA-A81D-3906F848E413}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436714D-595C-4B1E-98F0-A02E6BDF94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59827442-45B9-406B-8078-744BD15CA66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1060" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="26">
   <si>
     <t>Binary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,84 +90,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B32</t>
-  </si>
-  <si>
-    <t>B33</t>
-  </si>
-  <si>
-    <t>B34</t>
-  </si>
-  <si>
-    <t>B35</t>
-  </si>
-  <si>
-    <t>B36</t>
-  </si>
-  <si>
-    <t>B43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B44</t>
-  </si>
-  <si>
-    <t>B45</t>
-  </si>
-  <si>
-    <t>B46</t>
-  </si>
-  <si>
-    <t>B47</t>
-  </si>
-  <si>
-    <t>B48</t>
-  </si>
-  <si>
-    <t>B7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quantitative</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>B21</t>
-  </si>
-  <si>
-    <t>B22</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B24</t>
   </si>
   <si>
     <t>Software</t>
@@ -589,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -619,14 +543,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
+      <c r="A2">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>7895</v>
@@ -642,14 +566,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="D3">
         <v>7895</v>
@@ -665,14 +589,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7895</v>
@@ -688,14 +612,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7895</v>
@@ -711,14 +635,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>7895</v>
@@ -734,14 +658,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>7895</v>
@@ -757,14 +681,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
+      <c r="A8">
+        <v>19</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>7895</v>
@@ -780,14 +704,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
+      <c r="A9">
+        <v>19</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>7895</v>
@@ -803,14 +727,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
+      <c r="A10">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>7895</v>
@@ -826,14 +750,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
+      <c r="A11">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>7895</v>
@@ -849,14 +773,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
+      <c r="A12">
+        <v>19</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>7895</v>
@@ -872,14 +796,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
+      <c r="A13">
+        <v>19</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>7895</v>
@@ -895,8 +819,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14">
+        <v>31</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -918,8 +842,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15">
+        <v>31</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -941,8 +865,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16">
+        <v>31</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -964,8 +888,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17">
+        <v>31</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -987,8 +911,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="A18">
+        <v>31</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1010,8 +934,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
+      <c r="A19">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1033,8 +957,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20">
+        <v>43</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1056,8 +980,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21">
+        <v>43</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1079,8 +1003,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22">
+        <v>43</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1102,8 +1026,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
+      <c r="A23">
+        <v>43</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1125,8 +1049,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
+      <c r="A24">
+        <v>43</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1148,8 +1072,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="A25">
+        <v>43</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1191,36 +1115,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1245,7 +1169,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1255,7 +1179,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1280,7 +1204,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1305,7 +1229,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1330,10 +1254,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -1360,7 +1284,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1385,7 +1309,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1395,7 +1319,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1420,7 +1344,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1445,7 +1369,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1470,10 +1394,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -1500,7 +1424,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1525,7 +1449,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1550,7 +1474,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1575,7 +1499,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1600,7 +1524,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1625,10 +1549,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -1783,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -1810,7 +1734,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1835,7 +1759,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1860,7 +1784,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -1885,7 +1809,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1910,7 +1834,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -1935,10 +1859,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -1965,7 +1889,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1988,7 +1912,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2011,7 +1935,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2034,7 +1958,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2057,7 +1981,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2080,10 +2004,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -2127,36 +2051,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2181,7 +2105,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2206,7 +2130,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2231,7 +2155,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2256,7 +2180,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2281,10 +2205,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -2311,7 +2235,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2336,7 +2260,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2361,7 +2285,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2386,7 +2310,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2411,7 +2335,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2436,10 +2360,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -2466,7 +2390,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2491,7 +2415,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -2516,7 +2440,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -2541,7 +2465,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -2566,7 +2490,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -2591,10 +2515,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -2749,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -2776,7 +2700,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2801,7 +2725,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2826,7 +2750,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -2851,7 +2775,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -2876,7 +2800,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -2901,10 +2825,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -2931,7 +2855,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2954,7 +2878,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2977,7 +2901,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3000,7 +2924,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3023,7 +2947,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3046,10 +2970,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -3093,36 +3017,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3147,7 +3071,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3172,7 +3096,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3197,7 +3121,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -3222,7 +3146,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -3247,10 +3171,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -3277,7 +3201,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3302,7 +3226,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -3327,7 +3251,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3352,7 +3276,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -3377,7 +3301,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -3402,10 +3326,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -3432,7 +3356,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3457,7 +3381,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -3482,7 +3406,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -3507,7 +3431,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -3532,7 +3456,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -3557,10 +3481,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -3715,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -3742,7 +3666,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -3767,7 +3691,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -3792,7 +3716,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -3817,7 +3741,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -3842,7 +3766,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -3867,10 +3791,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -3897,7 +3821,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3920,7 +3844,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3943,7 +3867,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3966,7 +3890,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3989,7 +3913,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4012,10 +3936,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -4048,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064FE5B8-6C62-4961-A9DD-ABC7E96C5962}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
@@ -4059,36 +3983,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4113,7 +4037,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4138,7 +4062,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4163,7 +4087,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4188,7 +4112,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4203,10 +4127,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -4233,7 +4157,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4258,7 +4182,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -4283,7 +4207,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -4308,7 +4232,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4333,7 +4257,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -4348,10 +4272,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -4378,7 +4302,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -4403,7 +4327,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -4428,7 +4352,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -4453,7 +4377,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -4478,7 +4402,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -4503,10 +4427,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -4661,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -4688,7 +4612,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -4713,7 +4637,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -4738,7 +4662,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -4763,7 +4687,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -4788,7 +4712,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -4813,10 +4737,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -4843,7 +4767,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4866,7 +4790,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -4889,7 +4813,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -4912,7 +4836,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -4935,7 +4859,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4943,10 +4867,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -4990,36 +4914,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5044,7 +4968,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5069,7 +4993,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5094,7 +5018,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -5119,7 +5043,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -5144,10 +5068,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -5174,7 +5098,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5199,7 +5123,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -5224,7 +5148,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -5249,7 +5173,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5274,7 +5198,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -5299,10 +5223,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -5329,7 +5253,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5354,7 +5278,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5379,7 +5303,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -5404,7 +5328,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -5429,7 +5353,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -5454,10 +5378,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -5612,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -5639,7 +5563,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5664,7 +5588,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5689,7 +5613,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -5714,7 +5638,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -5739,7 +5663,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -5764,10 +5688,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -5794,7 +5718,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5817,7 +5741,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5840,7 +5764,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -5863,7 +5787,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -5886,7 +5810,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5909,10 +5833,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -5957,36 +5881,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6011,7 +5935,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6036,7 +5960,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -6061,7 +5985,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -6086,7 +6010,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -6111,10 +6035,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -6141,7 +6065,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -6166,7 +6090,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -6191,7 +6115,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -6216,7 +6140,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -6241,7 +6165,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -6266,10 +6190,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -6296,7 +6220,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6321,7 +6245,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -6346,7 +6270,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -6371,7 +6295,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -6396,7 +6320,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -6421,10 +6345,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -6579,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -6606,7 +6530,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -6631,7 +6555,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6656,7 +6580,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -6681,7 +6605,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -6706,7 +6630,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -6731,10 +6655,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -6761,7 +6685,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6784,7 +6708,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -6807,7 +6731,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -6830,7 +6754,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -6853,7 +6777,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -6876,10 +6800,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -6923,36 +6847,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6977,7 +6901,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7002,7 +6926,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -7027,7 +6951,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -7052,7 +6976,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7077,10 +7001,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -7107,7 +7031,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7132,7 +7056,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7157,7 +7081,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -7182,7 +7106,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -7207,7 +7131,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -7232,10 +7156,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -7262,7 +7186,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -7287,7 +7211,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -7312,7 +7236,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -7337,7 +7261,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -7362,7 +7286,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -7387,10 +7311,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -7545,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -7572,7 +7496,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -7597,7 +7521,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -7622,7 +7546,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -7647,7 +7571,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -7672,7 +7596,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -7697,10 +7621,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -7727,7 +7651,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7750,7 +7674,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -7773,7 +7697,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -7796,7 +7720,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7819,7 +7743,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -7842,10 +7766,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -7889,36 +7813,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7943,7 +7867,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7968,7 +7892,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -7993,7 +7917,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8018,7 +7942,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -8043,10 +7967,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -8073,7 +7997,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -8098,7 +8022,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -8123,7 +8047,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -8148,7 +8072,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -8173,7 +8097,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -8198,10 +8122,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -8228,7 +8152,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -8253,7 +8177,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -8278,7 +8202,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -8303,7 +8227,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -8328,7 +8252,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -8353,10 +8277,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -8511,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -8538,7 +8462,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -8563,7 +8487,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -8588,7 +8512,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -8613,7 +8537,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -8638,7 +8562,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -8663,10 +8587,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -8693,7 +8617,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8716,7 +8640,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8739,7 +8663,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -8762,7 +8686,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -8785,7 +8709,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8808,10 +8732,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -8855,36 +8779,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -8909,7 +8833,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8934,7 +8858,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8959,7 +8883,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8984,7 +8908,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9009,10 +8933,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -9039,7 +8963,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9064,7 +8988,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9089,7 +9013,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -9114,7 +9038,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9139,7 +9063,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -9164,10 +9088,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -9194,7 +9118,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -9219,7 +9143,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -9244,7 +9168,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -9269,7 +9193,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -9294,7 +9218,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -9319,10 +9243,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -9477,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -9504,7 +9428,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -9529,7 +9453,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -9554,7 +9478,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -9579,7 +9503,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -9604,7 +9528,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -9629,10 +9553,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -9659,7 +9583,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9682,7 +9606,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9705,7 +9629,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9728,7 +9652,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -9751,7 +9675,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -9774,10 +9698,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -9821,36 +9745,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9875,7 +9799,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9900,7 +9824,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9925,7 +9849,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9950,7 +9874,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9975,10 +9899,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -10005,7 +9929,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -10030,7 +9954,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -10055,7 +9979,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10080,7 +10004,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10105,7 +10029,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -10130,10 +10054,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -10160,7 +10084,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -10185,7 +10109,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -10210,7 +10134,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -10235,7 +10159,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -10260,7 +10184,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -10285,10 +10209,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -10443,7 +10367,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -10470,7 +10394,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -10495,7 +10419,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -10520,7 +10444,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -10545,7 +10469,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -10570,7 +10494,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -10595,10 +10519,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -10625,7 +10549,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10648,7 +10572,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -10671,7 +10595,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10694,7 +10618,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -10717,7 +10641,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -10740,10 +10664,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -10787,36 +10711,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10841,7 +10765,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10866,7 +10790,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -10891,7 +10815,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -10916,7 +10840,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -10941,10 +10865,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -10971,7 +10895,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -10996,7 +10920,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11021,7 +10945,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -11046,7 +10970,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -11071,7 +10995,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11096,10 +11020,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -11126,7 +11050,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -11151,7 +11075,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -11176,7 +11100,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -11201,7 +11125,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -11226,7 +11150,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -11251,10 +11175,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -11409,7 +11333,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -11436,7 +11360,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -11461,7 +11385,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -11486,7 +11410,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -11511,7 +11435,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -11536,7 +11460,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -11561,10 +11485,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -11591,7 +11515,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11614,7 +11538,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -11637,7 +11561,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11660,7 +11584,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -11683,7 +11607,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -11706,10 +11630,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -11754,36 +11678,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -11808,7 +11732,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -11833,7 +11757,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -11858,7 +11782,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -11883,7 +11807,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -11908,10 +11832,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -11938,7 +11862,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -11963,7 +11887,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11988,7 +11912,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -12013,7 +11937,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -12038,7 +11962,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -12063,10 +11987,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -12093,7 +12017,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -12118,7 +12042,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -12143,7 +12067,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -12168,7 +12092,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -12193,7 +12117,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -12218,10 +12142,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -12376,7 +12300,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -12403,7 +12327,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -12428,7 +12352,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -12453,7 +12377,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -12478,7 +12402,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -12503,7 +12427,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -12528,10 +12452,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -12558,7 +12482,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -12581,7 +12505,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12604,7 +12528,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12627,7 +12551,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12650,7 +12574,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -12673,10 +12597,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59827442-45B9-406B-8078-744BD15CA66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788A7F5-BBDD-4614-8C26-1E1CC2E57834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="1060" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,15 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># Individuals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>h2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># Causal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,6 +143,14 @@
   </si>
   <si>
     <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,16 +530,16 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>7895</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>7895</v>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>7895</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>7895</v>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>7895</v>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>7895</v>
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>7895</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>7895</v>
@@ -734,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>7895</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>7895</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>7895</v>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>7895</v>
@@ -1115,36 +1115,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -2051,36 +2051,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -3017,36 +3017,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -3791,10 +3791,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -3983,36 +3983,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -4914,36 +4914,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -5536,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -5881,36 +5881,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -6503,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -6800,10 +6800,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -6847,36 +6847,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -7469,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -7621,10 +7621,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -7766,10 +7766,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -7813,36 +7813,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -8435,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -8779,36 +8779,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -8988,7 +8988,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -9088,10 +9088,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -9243,10 +9243,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -9401,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -9553,10 +9553,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -9698,10 +9698,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -9745,36 +9745,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9899,10 +9899,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -10367,7 +10367,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -10519,10 +10519,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -10711,36 +10711,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -10865,10 +10865,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -10945,7 +10945,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11020,10 +11020,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -11150,7 +11150,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -11175,10 +11175,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -11333,7 +11333,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -11485,10 +11485,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -11630,10 +11630,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -11678,36 +11678,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -11757,7 +11757,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -11807,7 +11807,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -11832,10 +11832,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -11937,7 +11937,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -11962,7 +11962,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11987,10 +11987,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -12142,10 +12142,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -12300,7 +12300,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -12402,7 +12402,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -12452,10 +12452,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12528,7 +12528,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -12597,10 +12597,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788A7F5-BBDD-4614-8C26-1E1CC2E57834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDA7C5-F682-4178-BA5A-D89D1E31C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1060" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -4904,7 +4904,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DDA7C5-F682-4178-BA5A-D89D1E31C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719FD83-344B-4713-868F-6923611E42E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,12 @@
     <sheet name="B22" sheetId="11" r:id="rId11"/>
     <sheet name="B23" sheetId="12" r:id="rId12"/>
     <sheet name="B24" sheetId="13" r:id="rId13"/>
+    <sheet name="W19" sheetId="14" r:id="rId14"/>
+    <sheet name="W20" sheetId="15" r:id="rId15"/>
+    <sheet name="W21" sheetId="16" r:id="rId16"/>
+    <sheet name="W22" sheetId="17" r:id="rId17"/>
+    <sheet name="W23" sheetId="18" r:id="rId18"/>
+    <sheet name="W24" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
@@ -4894,6 +4900,85 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F75DE92-14BA-4187-A678-E69C175569F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40A639B-38BE-4A5A-89C4-78CE1B4A7BF6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470084F7-F134-4811-8724-688B2451A88B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8ED1BD-13AD-46BA-B595-E19089974665}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36FA8DF-C075-4C3C-BF5A-8A470E994990}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5F05-2F28-4103-A8BE-1B1C20855D90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719FD83-344B-4713-868F-6923611E42E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9738C63-D67C-4069-A5BE-87613DBCD2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4975,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5F05-2F28-4103-A8BE-1B1C20855D90}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -9819,8 +9819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC360889-E482-4600-A906-67B8B7C4FC1C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9738C63-D67C-4069-A5BE-87613DBCD2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC3D36-5CB3-4E2A-9EC3-5B166B6BBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,11 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="26">
-  <si>
-    <t>Binary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="25">
   <si>
     <t>GCTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,33 +515,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -556,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>7895</v>
@@ -568,7 +564,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -579,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>7895</v>
@@ -591,7 +587,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -602,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>7895</v>
@@ -614,7 +610,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>7895</v>
@@ -637,7 +633,7 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>7895</v>
@@ -660,7 +656,7 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -671,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>7895</v>
@@ -683,7 +679,7 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>7895</v>
@@ -706,7 +702,7 @@
         <v>1000</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -717,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>7895</v>
@@ -729,7 +725,7 @@
         <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -740,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>7895</v>
@@ -752,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -763,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>7895</v>
@@ -775,7 +771,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -786,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>7895</v>
@@ -798,7 +794,7 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -809,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>7895</v>
@@ -821,21 +817,21 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -844,21 +840,21 @@
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E15">
         <v>0.5</v>
@@ -867,21 +863,21 @@
         <v>1000</v>
       </c>
       <c r="G15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E16">
         <v>0.9</v>
@@ -890,21 +886,21 @@
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E17">
         <v>0.1</v>
@@ -913,21 +909,21 @@
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -936,21 +932,21 @@
         <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E19">
         <v>0.9</v>
@@ -959,21 +955,21 @@
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E20">
         <v>0.1</v>
@@ -982,21 +978,21 @@
         <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -1005,21 +1001,21 @@
         <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E22">
         <v>0.9</v>
@@ -1028,21 +1024,21 @@
         <v>1000</v>
       </c>
       <c r="G22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E23">
         <v>0.1</v>
@@ -1051,21 +1047,21 @@
         <v>10000</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1074,21 +1070,21 @@
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>7895</v>
+        <v>43160</v>
       </c>
       <c r="E25">
         <v>0.9</v>
@@ -1097,7 +1093,7 @@
         <v>10000</v>
       </c>
       <c r="G25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1121,36 +1117,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1175,7 +1171,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1185,7 +1181,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1210,7 +1206,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1235,7 +1231,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1260,10 +1256,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -1290,7 +1286,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1315,7 +1311,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1325,7 +1321,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1350,7 +1346,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1375,7 +1371,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1400,10 +1396,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -1430,7 +1426,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1455,7 +1451,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1480,7 +1476,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1505,7 +1501,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1530,7 +1526,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1555,10 +1551,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -1585,7 +1581,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1610,7 +1606,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1635,7 +1631,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1660,7 +1656,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1685,7 +1681,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -1710,10 +1706,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -1740,7 +1736,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1765,7 +1761,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1790,7 +1786,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -1815,7 +1811,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1840,7 +1836,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -1865,10 +1861,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -1895,7 +1891,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1918,7 +1914,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1941,7 +1937,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1964,7 +1960,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1987,7 +1983,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2010,10 +2006,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -2057,36 +2053,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2111,7 +2107,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2136,7 +2132,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2161,7 +2157,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2186,7 +2182,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2211,10 +2207,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -2241,7 +2237,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2266,7 +2262,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2291,7 +2287,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2316,7 +2312,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2341,7 +2337,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2366,10 +2362,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -2396,7 +2392,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2421,7 +2417,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -2446,7 +2442,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -2471,7 +2467,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -2496,7 +2492,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -2521,10 +2517,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -2551,7 +2547,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2576,7 +2572,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2601,7 +2597,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -2626,7 +2622,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -2651,7 +2647,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -2676,10 +2672,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -2706,7 +2702,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2731,7 +2727,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2756,7 +2752,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -2781,7 +2777,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -2806,7 +2802,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -2831,10 +2827,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -2861,7 +2857,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2884,7 +2880,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2907,7 +2903,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2930,7 +2926,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2953,7 +2949,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2976,10 +2972,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -3023,36 +3019,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3077,7 +3073,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3102,7 +3098,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3127,7 +3123,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -3152,7 +3148,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -3177,10 +3173,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -3207,7 +3203,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3232,7 +3228,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -3257,7 +3253,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3282,7 +3278,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -3307,7 +3303,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -3332,10 +3328,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -3362,7 +3358,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3387,7 +3383,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -3412,7 +3408,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -3437,7 +3433,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -3462,7 +3458,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -3487,10 +3483,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -3517,7 +3513,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -3567,7 +3563,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -3592,7 +3588,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -3617,7 +3613,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -3642,10 +3638,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -3672,7 +3668,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -3697,7 +3693,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -3722,7 +3718,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -3747,7 +3743,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -3772,7 +3768,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -3797,10 +3793,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -3827,7 +3823,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3850,7 +3846,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3873,7 +3869,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3896,7 +3892,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3919,7 +3915,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3942,10 +3938,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -3989,36 +3985,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4043,7 +4039,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4068,7 +4064,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4093,7 +4089,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4133,10 +4129,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -4163,7 +4159,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4188,7 +4184,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -4213,7 +4209,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -4238,7 +4234,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4263,7 +4259,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -4278,10 +4274,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -4308,7 +4304,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -4333,7 +4329,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -4358,7 +4354,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -4383,7 +4379,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -4408,7 +4404,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -4433,10 +4429,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -4463,7 +4459,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -4488,7 +4484,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -4513,7 +4509,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -4538,7 +4534,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -4563,7 +4559,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -4588,10 +4584,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -4618,7 +4614,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -4643,7 +4639,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -4668,7 +4664,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -4693,7 +4689,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -4743,10 +4739,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -4773,7 +4769,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4796,7 +4792,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -4819,7 +4815,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -4842,7 +4838,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -4865,7 +4861,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4873,10 +4869,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -4999,36 +4995,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5053,7 +5049,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5078,7 +5074,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5103,7 +5099,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -5128,7 +5124,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -5153,10 +5149,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -5183,7 +5179,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5208,7 +5204,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -5233,7 +5229,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -5258,7 +5254,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5283,7 +5279,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -5308,10 +5304,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5363,7 +5359,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5388,7 +5384,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -5413,7 +5409,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -5438,7 +5434,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -5463,10 +5459,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -5493,7 +5489,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -5518,7 +5514,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -5543,7 +5539,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -5568,7 +5564,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -5593,7 +5589,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -5618,10 +5614,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -5648,7 +5644,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5673,7 +5669,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5698,7 +5694,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -5723,7 +5719,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -5748,7 +5744,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -5773,10 +5769,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -5803,7 +5799,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5826,7 +5822,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -5849,7 +5845,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -5872,7 +5868,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -5895,7 +5891,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5918,10 +5914,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -5966,36 +5962,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6020,7 +6016,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6045,7 +6041,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -6070,7 +6066,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -6095,7 +6091,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -6120,10 +6116,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -6150,7 +6146,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -6175,7 +6171,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -6200,7 +6196,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -6225,7 +6221,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -6250,7 +6246,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -6275,10 +6271,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -6305,7 +6301,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6330,7 +6326,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -6355,7 +6351,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -6380,7 +6376,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -6405,7 +6401,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -6430,10 +6426,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -6460,7 +6456,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -6485,7 +6481,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -6510,7 +6506,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -6535,7 +6531,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -6560,7 +6556,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -6585,10 +6581,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -6615,7 +6611,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -6640,7 +6636,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6665,7 +6661,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -6690,7 +6686,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -6715,7 +6711,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -6740,10 +6736,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -6770,7 +6766,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6793,7 +6789,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -6816,7 +6812,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -6839,7 +6835,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -6862,7 +6858,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -6885,10 +6881,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -6932,36 +6928,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6986,7 +6982,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7011,7 +7007,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -7036,7 +7032,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -7061,7 +7057,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7086,10 +7082,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -7116,7 +7112,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7166,7 +7162,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -7191,7 +7187,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -7216,7 +7212,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -7241,10 +7237,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -7271,7 +7267,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -7296,7 +7292,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -7321,7 +7317,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -7346,7 +7342,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -7371,7 +7367,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -7396,10 +7392,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -7426,7 +7422,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -7451,7 +7447,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -7476,7 +7472,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -7501,7 +7497,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -7526,7 +7522,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -7551,10 +7547,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -7581,7 +7577,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -7606,7 +7602,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -7631,7 +7627,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -7656,7 +7652,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -7681,7 +7677,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -7706,10 +7702,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -7736,7 +7732,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7759,7 +7755,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -7782,7 +7778,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -7805,7 +7801,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7828,7 +7824,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -7851,10 +7847,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -7898,36 +7894,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7952,7 +7948,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7977,7 +7973,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8002,7 +7998,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -8052,10 +8048,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -8082,7 +8078,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -8107,7 +8103,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -8132,7 +8128,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -8157,7 +8153,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -8182,7 +8178,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -8207,10 +8203,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -8237,7 +8233,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -8262,7 +8258,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -8287,7 +8283,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -8312,7 +8308,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -8337,7 +8333,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -8362,10 +8358,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -8392,7 +8388,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -8417,7 +8413,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -8442,7 +8438,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -8467,7 +8463,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -8492,7 +8488,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -8517,10 +8513,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -8547,7 +8543,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -8572,7 +8568,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -8597,7 +8593,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -8622,7 +8618,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -8647,7 +8643,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -8672,10 +8668,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -8702,7 +8698,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8725,7 +8721,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8748,7 +8744,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -8771,7 +8767,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -8794,7 +8790,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8817,10 +8813,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -8864,36 +8860,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -8918,7 +8914,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8943,7 +8939,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8968,7 +8964,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8993,7 +8989,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9018,10 +9014,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -9048,7 +9044,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9073,7 +9069,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9098,7 +9094,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -9123,7 +9119,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9148,7 +9144,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -9173,10 +9169,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -9203,7 +9199,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -9228,7 +9224,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -9253,7 +9249,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -9278,7 +9274,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -9303,7 +9299,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -9328,10 +9324,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -9358,7 +9354,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -9383,7 +9379,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -9408,7 +9404,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -9433,7 +9429,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -9458,7 +9454,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -9483,10 +9479,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -9513,7 +9509,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -9538,7 +9534,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -9563,7 +9559,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -9588,7 +9584,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -9613,7 +9609,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -9638,10 +9634,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -9668,7 +9664,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9691,7 +9687,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9714,7 +9710,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9737,7 +9733,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -9760,7 +9756,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -9783,10 +9779,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -9819,7 +9815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC360889-E482-4600-A906-67B8B7C4FC1C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9830,36 +9826,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9884,7 +9880,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9909,7 +9905,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9934,7 +9930,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9959,7 +9955,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9984,10 +9980,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -10014,7 +10010,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -10039,7 +10035,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -10064,7 +10060,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10089,7 +10085,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10114,7 +10110,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -10139,10 +10135,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -10169,7 +10165,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -10194,7 +10190,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -10219,7 +10215,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -10244,7 +10240,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -10269,7 +10265,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -10294,10 +10290,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -10324,7 +10320,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -10349,7 +10345,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -10374,7 +10370,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -10399,7 +10395,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -10424,7 +10420,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -10449,10 +10445,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -10479,7 +10475,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -10504,7 +10500,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -10529,7 +10525,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -10554,7 +10550,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -10579,7 +10575,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -10604,10 +10600,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -10634,7 +10630,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10657,7 +10653,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -10680,7 +10676,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10703,7 +10699,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -10726,7 +10722,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -10749,10 +10745,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -10796,36 +10792,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10850,7 +10846,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10875,7 +10871,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -10900,7 +10896,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -10925,7 +10921,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -10950,10 +10946,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -10980,7 +10976,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -11005,7 +11001,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11030,7 +11026,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -11055,7 +11051,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -11080,7 +11076,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11105,10 +11101,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -11135,7 +11131,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -11160,7 +11156,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -11185,7 +11181,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -11210,7 +11206,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -11235,7 +11231,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -11260,10 +11256,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -11290,7 +11286,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -11315,7 +11311,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -11340,7 +11336,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -11365,7 +11361,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -11390,7 +11386,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -11415,10 +11411,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -11445,7 +11441,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -11470,7 +11466,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -11495,7 +11491,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -11520,7 +11516,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -11545,7 +11541,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -11570,10 +11566,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -11600,7 +11596,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11623,7 +11619,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -11646,7 +11642,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11669,7 +11665,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -11692,7 +11688,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -11715,10 +11711,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
@@ -11763,36 +11759,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -11817,7 +11813,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -11842,7 +11838,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -11867,7 +11863,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -11892,7 +11888,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -11917,10 +11913,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
@@ -11947,7 +11943,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -11972,7 +11968,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11997,7 +11993,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -12022,7 +12018,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -12047,7 +12043,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -12072,10 +12068,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <f>AVERAGE(C8:C12)</f>
@@ -12102,7 +12098,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -12127,7 +12123,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -12152,7 +12148,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -12177,7 +12173,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -12202,7 +12198,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -12227,10 +12223,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <f>AVERAGE(C14:C18)</f>
@@ -12257,7 +12253,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -12282,7 +12278,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -12307,7 +12303,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -12332,7 +12328,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -12357,7 +12353,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -12382,10 +12378,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f>AVERAGE(C20:C24)</f>
@@ -12412,7 +12408,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -12437,7 +12433,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -12462,7 +12458,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -12487,7 +12483,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -12512,7 +12508,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
@@ -12537,10 +12533,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C26:C30)</f>
@@ -12567,7 +12563,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -12590,7 +12586,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12613,7 +12609,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12636,7 +12632,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12659,7 +12655,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -12682,10 +12678,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC3D36-5CB3-4E2A-9EC3-5B166B6BBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE69AF9-69BF-4B87-AD29-9B7B746BB2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -4984,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A3425D-E1BA-4DA4-8466-C372F128AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E53395-9315-4965-9745-4FCED80D3850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5493,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94965609-AECF-4DE0-A43D-FBF0A04978E7}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6928,7 +6928,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6972,11 +6972,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -6987,11 +6997,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -7002,11 +7022,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -7017,11 +7047,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -7032,11 +7072,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -7062,11 +7112,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -7077,11 +7137,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -7092,11 +7162,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -7107,11 +7187,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -7122,11 +7212,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -7152,11 +7252,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -7167,11 +7277,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -7182,11 +7302,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -7197,11 +7327,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.24155930044537</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -7212,11 +7352,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -7242,11 +7392,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -7257,11 +7417,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -7272,11 +7442,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G22" s="6">
+        <v>9</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -7287,11 +7467,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G23" s="2">
+        <v>16</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -7302,11 +7492,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -7332,11 +7532,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G26" s="1">
+        <v>14</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -7347,11 +7557,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G27" s="1">
+        <v>14</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -7362,11 +7582,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -7377,11 +7607,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G29" s="6">
+        <v>16</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -7392,11 +7632,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -7422,8 +7672,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7432,8 +7695,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -7442,8 +7718,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F34">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -7452,7 +7741,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F35">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -7460,6 +7763,21 @@
       </c>
       <c r="B36">
         <v>5</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -7485,8 +7803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C8D6D-1F50-4DEA-9C86-C65A8DC7228B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7530,11 +7848,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -7545,11 +7873,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -7560,11 +7898,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -7575,11 +7923,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -7590,11 +7948,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -7620,11 +7988,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -7635,11 +8013,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>4.41E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -7650,11 +8038,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -7665,11 +8063,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5626249850017999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -7680,11 +8088,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -7710,11 +8128,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -7725,11 +8153,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -7740,11 +8178,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -7755,11 +8203,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -7770,11 +8228,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -7800,11 +8268,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -7815,11 +8293,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>3.56E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -7830,11 +8318,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22" s="6">
+        <v>13</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -7845,11 +8343,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -7860,11 +8368,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -7890,11 +8408,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -7905,11 +8433,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -7920,11 +8458,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -7935,11 +8483,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -7950,11 +8508,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -7980,8 +8548,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F32">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7990,8 +8571,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -8000,8 +8594,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E34">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -8010,7 +8617,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E35">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F35">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -8018,6 +8639,21 @@
       </c>
       <c r="B36">
         <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E36">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F36">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD5009-FD08-453C-B839-756E3F14C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76398F-DCE0-4482-81BA-71EDADCEC839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="37">
   <si>
     <t>GCTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,44 @@
   <si>
     <t>Causal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>W24</t>
   </si>
 </sst>
 </file>
@@ -522,7 +560,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -827,8 +865,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -850,8 +888,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -873,8 +911,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>9</v>
+      <c r="A16" t="s">
+        <v>27</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -896,8 +934,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10</v>
+      <c r="A17" t="s">
+        <v>28</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -919,8 +957,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>11</v>
+      <c r="A18" t="s">
+        <v>29</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -942,8 +980,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>12</v>
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -965,8 +1003,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -988,8 +1026,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>32</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1011,8 +1049,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1034,8 +1072,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>34</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1057,8 +1095,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>35</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1080,8 +1118,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>36</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3044,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C7804E-8050-4758-80A5-02B88716D66F}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4010,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064FE5B8-6C62-4961-A9DD-ABC7E96C5962}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4180,11 +4218,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.6000000000000004E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50525263016605881</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333326</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -4325,19 +4378,19 @@
         <v>3.2399999999999998E-3</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
         <v>1.4000000000000001E-4</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18415484824908121</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H13" s="5"/>
@@ -4480,19 +4533,19 @@
         <v>3.0199999999999997E-3</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14915118633341057</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1555555555555557</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
       <c r="H19" s="5"/>
@@ -4635,19 +4688,19 @@
         <v>3.3E-3</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
         <v>1E-4</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38452340692374254</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2444444444444431</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.2</v>
       </c>
       <c r="H25" s="5"/>
@@ -4790,19 +4843,19 @@
         <v>3.32E-3</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
         <v>1E-4</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38452340692374254</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2444444444444431</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.2</v>
       </c>
       <c r="H31" s="3"/>
@@ -4935,19 +4988,19 @@
         <v>3.0199999999999997E-3</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ref="D37:G37" si="4">AVERAGE(D32:D36)</f>
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
         <v>1.2000000000000002E-4</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26101292336039694</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999856</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -6894,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873E5E5-6F2C-4FD7-9DCE-DB6CE67AB088}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6939,11 +6992,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -6954,11 +7017,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.0914090184196006</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -6969,11 +7042,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -6984,11 +7067,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -6999,11 +7092,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -7014,11 +7117,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1065420949718874</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6545454545454541</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -7029,11 +7147,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G8" s="6">
+        <v>16</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -7044,11 +7172,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -7059,11 +7197,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -7074,11 +7222,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -7089,11 +7247,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -7104,11 +7272,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.58539999999999992</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2977842849895182</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0545454545454527</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -7119,11 +7302,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -7134,11 +7327,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -7149,11 +7352,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -7164,11 +7377,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.4001799775028099</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -7179,11 +7402,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -7194,11 +7427,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.46740000000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77829728668853937</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.67272727272727251</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -7209,11 +7457,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -7224,11 +7482,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>0.504</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21" s="1">
+        <v>12</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -7239,11 +7507,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -7254,11 +7532,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G23" s="2">
+        <v>16</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -7269,11 +7557,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>0.505</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -7284,11 +7582,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.22687784974203457</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0545454545454529</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>11.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -7299,11 +7612,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -7314,11 +7637,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>0.504</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27" s="1">
+        <v>12</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -7329,11 +7662,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -7344,11 +7687,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G29" s="6">
+        <v>16</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -7359,11 +7712,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>0.504</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -7374,11 +7737,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.38680000000000003</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.22687784974203457</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0545454545454529</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>11.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -7389,8 +7767,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F32">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -7399,8 +7790,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>0.498</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.379</v>
+      </c>
+      <c r="E33">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F33">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -7409,8 +7813,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -7419,7 +7836,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>0.498</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E35">
+        <v>523.41656985734096</v>
+      </c>
+      <c r="F35">
+        <v>50.545454545454497</v>
+      </c>
+      <c r="G35">
+        <v>556</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -7428,6 +7859,21 @@
       <c r="B36">
         <v>5</v>
       </c>
+      <c r="C36">
+        <v>0.501</v>
+      </c>
+      <c r="D36">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -7436,11 +7882,26 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>104.85256273907912</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.89090909090908</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>119.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9942,8 +10403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15332,7 +15793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5F05-2F28-4103-A8BE-1B1C20855D90}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76398F-DCE0-4482-81BA-71EDADCEC839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5B56D-D031-470D-98A2-B24AFA7B3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6947,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873E5E5-6F2C-4FD7-9DCE-DB6CE67AB088}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7914,7 +7914,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13303,8 +13303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470084F7-F134-4811-8724-688B2451A88B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13348,11 +13348,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -13363,11 +13373,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.9233968798827501</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -13378,11 +13398,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.5002449681541399</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -13393,11 +13423,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -13408,11 +13448,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.0914090184196006</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -13438,11 +13488,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G8" s="6">
+        <v>12</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -13453,11 +13513,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -13468,11 +13538,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -13483,11 +13563,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -13498,11 +13588,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.6335783210839501</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G12" s="2">
+        <v>19</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -13528,11 +13628,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -13543,11 +13653,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -13558,11 +13678,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -13573,11 +13703,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -13588,11 +13728,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -13618,11 +13768,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>0.501</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.373</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -13633,11 +13793,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>0.498</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.4001799775028099</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -13648,11 +13818,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.373</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22" s="6">
+        <v>13</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -13663,11 +13843,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G23" s="2">
+        <v>17</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -13678,11 +13868,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -13708,11 +13908,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>0.501</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.373</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -13723,11 +13933,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>0.498</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.4001799775028099</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -13738,11 +13958,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.372</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -13753,11 +13983,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G29" s="6">
+        <v>17</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -13768,11 +14008,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -13798,8 +14048,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E32">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -13808,8 +14071,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E33">
+        <v>2.4001799775028099</v>
+      </c>
+      <c r="F33">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -13818,8 +14094,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -13828,7 +14117,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E35">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -13836,6 +14139,21 @@
       </c>
       <c r="B36">
         <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F36">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5B56D-D031-470D-98A2-B24AFA7B3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F9578-4F7D-4C65-A81E-D054A58E49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6947,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873E5E5-6F2C-4FD7-9DCE-DB6CE67AB088}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7836,21 +7836,7 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
-        <v>0.498</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E35">
-        <v>523.41656985734096</v>
-      </c>
-      <c r="F35">
-        <v>50.545454545454497</v>
-      </c>
-      <c r="G35">
-        <v>556</v>
-      </c>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -7884,23 +7870,23 @@
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C32:C36)</f>
-        <v>0.50719999999999998</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
-        <v>0.37780000000000002</v>
+        <v>0.38325000000000004</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="5"/>
-        <v>104.85256273907912</v>
+        <v>0.21156095951365275</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="5"/>
-        <v>10.89090909090908</v>
+        <v>0.97727272727272618</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="5"/>
-        <v>119.8</v>
+        <v>10.75</v>
       </c>
     </row>
   </sheetData>
@@ -9845,8 +9831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49387AF1-ADE1-493F-B004-68D620EB5F23}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9890,11 +9876,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>0.2177</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -9905,11 +9901,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>0.2334</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.1114</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.90405903249028</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.7272727272727302</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -9920,11 +9926,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1016</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G4" s="2">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -9935,11 +9951,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -9950,11 +9976,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.1018</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0648361146329099</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -9965,11 +10001,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.22117999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.10356000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0796874645321308</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6545454545454539</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -9980,11 +10031,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.1454</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -9995,11 +10056,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13.023958458338299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.3636363636363602</v>
+      </c>
+      <c r="G9" s="2">
+        <v>37</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -10010,11 +10081,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -10025,11 +10106,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>0.1462</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -10040,11 +10131,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.24155930044537</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -10055,11 +10156,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.14450000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.3579999999999996E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9631135506668529</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.490909090909091</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -10070,11 +10186,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>0.1293</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -10085,11 +10211,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.1348</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -10100,11 +10236,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>0.1249</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -10115,11 +10261,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -10130,11 +10286,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>0.1283</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -10145,11 +10311,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.12975999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>4.4819999999999999E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30265777882666622</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.98181818181818004</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -10160,11 +10341,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -10175,11 +10366,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>8.77E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>11</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -10190,11 +10391,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -10205,11 +10416,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -10220,11 +10441,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -10235,11 +10466,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.9080000000000006E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.632E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.35889607239439336</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090795</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -10250,11 +10496,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -10265,11 +10521,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -10280,11 +10546,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -10295,11 +10571,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -10310,11 +10596,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -10325,11 +10621,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.9019999999999988E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.622E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35889607239439336</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090795</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -10340,8 +10651,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F32">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -10350,8 +10674,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F33">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -10360,8 +10697,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.5626249850017999</v>
+      </c>
+      <c r="F34">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -10370,7 +10720,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F35">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -10379,6 +10743,21 @@
       <c r="B36">
         <v>5</v>
       </c>
+      <c r="C36">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -10387,11 +10766,26 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.6720000000000005E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.4479999999999998E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.61030928198987833</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94545454545454388</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13303,8 +13697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470084F7-F134-4811-8724-688B2451A88B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13473,11 +13867,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7012624654691662</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -13613,11 +14022,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.45339999999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35871966391681259</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -13753,11 +14177,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.57619999999999993</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.45180000000000009</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1100099989101188</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>9.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -13893,11 +14332,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.37220000000000003</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.74620752432624371</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>11.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -14033,11 +14487,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74620752432624371</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>11.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -14163,11 +14632,26 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.59671366101735024</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89090909090908998</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16111,8 +16595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5F05-2F28-4103-A8BE-1B1C20855D90}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16156,11 +16640,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="8">
+        <v>0.2059</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>11</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -16171,11 +16665,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -16186,11 +16690,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.5970431132882794</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.8181818181818201</v>
+      </c>
+      <c r="G4" s="2">
+        <v>31</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -16201,11 +16715,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -16216,11 +16740,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -16231,11 +16765,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.21023999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.5979999999999996E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0485435669077829</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6181818181818179</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -16246,11 +16795,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="2">
+        <v>0.1343</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -16261,11 +16820,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -16276,11 +16845,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="8">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.6335783210839501</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -16291,11 +16870,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="8">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -16306,11 +16895,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>0.1381</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -16321,11 +16920,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.13847999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.0819999999999997E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40428976607094319</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2545454545454537</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -16336,11 +16950,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="8">
+        <v>0.1203</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -16351,11 +16975,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.1217</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -16366,11 +17000,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="8">
+        <v>0.1263</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -16381,11 +17025,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="8">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5626249850017999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -16396,11 +17050,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="8">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -16411,11 +17075,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.12376000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>4.2639999999999997E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73784532423539062</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.96363636363636174</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -16426,11 +17105,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="8">
+        <v>8.43E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -16441,11 +17130,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="8">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G21" s="1">
+        <v>17</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -16456,11 +17155,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.0648361146329099</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G22" s="6">
+        <v>20</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -16471,11 +17180,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="8">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -16486,11 +17205,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="8">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -16501,11 +17230,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.5580000000000003E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.3299999999999998E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.60156464989811065</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2545454545454557</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>13.8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -16516,11 +17260,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="8">
+        <v>8.43E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -16531,11 +17285,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="8">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -16546,11 +17310,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="8">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0648361146329099</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -16561,11 +17335,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="2">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>11</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -16576,11 +17360,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="8">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -16591,11 +17385,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.5580000000000003E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.3259999999999996E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.60156464989811065</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2545454545454557</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>13.8</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -16606,8 +17415,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="7">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.12E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -16616,8 +17438,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.5316549838006499</v>
+      </c>
+      <c r="F33">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -16626,8 +17461,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="7">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.46E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.6335783210839501</v>
+      </c>
+      <c r="F34">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -16636,7 +17484,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -16653,11 +17515,26 @@
       <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.3549999999999999E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.2624999999999999E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.04130832622115</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4090909090909098</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F9578-4F7D-4C65-A81E-D054A58E49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7DEE8-0108-4EA0-A1AC-06975181B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="25">
   <si>
     <t>GCTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,44 +160,6 @@
   <si>
     <t>Causal</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W8</t>
-  </si>
-  <si>
-    <t>W9</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W20</t>
-  </si>
-  <si>
-    <t>W21</t>
-  </si>
-  <si>
-    <t>W22</t>
-  </si>
-  <si>
-    <t>W23</t>
-  </si>
-  <si>
-    <t>W24</t>
   </si>
 </sst>
 </file>
@@ -559,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -590,7 +552,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -613,7 +575,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -636,7 +598,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -659,7 +621,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -682,7 +644,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -705,7 +667,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -728,7 +690,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -751,7 +713,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -774,7 +736,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -797,7 +759,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -820,7 +782,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -843,7 +805,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -865,8 +827,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -888,8 +850,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -911,8 +873,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -934,8 +896,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -957,8 +919,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -980,8 +942,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1003,8 +965,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1026,8 +988,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1049,8 +1011,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1072,8 +1034,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1095,8 +1057,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1118,8 +1080,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -6947,7 +6909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873E5E5-6F2C-4FD7-9DCE-DB6CE67AB088}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -10797,8 +10759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0811C5EE-94E2-4826-A5B6-5F2C62F31795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D013A77-7142-4070-9BEC-5674A4E163F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="4" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1291,11 +1291,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.15940000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6895930577506808</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777746</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -1431,11 +1446,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.15940000000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6895930577506808</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777746</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -1570,11 +1600,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.33419999999999994</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11992928863682339</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1333333333333315</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -1705,11 +1750,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.17040000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.61111903217891539</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -1841,11 +1901,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.1648</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.29677471724160276</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.91111111111111021</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -1971,11 +2046,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.15460000000000002</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>6.0399999999999995E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78626826872831712</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.62222222222222245</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -1990,7 +2080,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2159,11 +2249,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21041158197304219</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0222222222222213</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -2299,11 +2404,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21041158197304219</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222213</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -2438,11 +2558,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21041158197304219</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777675</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -2573,11 +2708,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21041158197304219</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.97777777777777675</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -2709,11 +2859,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.28681856999973332</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -2839,11 +3004,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.13858363475337296</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -2858,7 +3038,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3027,11 +3207,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4330388506716142E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0444444444444432</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -3167,11 +3362,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4330388506716142E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444432</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -3306,11 +3516,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5839436446653549E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888873</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -3441,11 +3666,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.1999999999999987E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8105003273225957E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8888888888888884</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -3577,11 +3817,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.20442307120002648</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.86666666666666625</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -3707,11 +3962,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3338215818029798E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.91111111111111087</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -3726,7 +3996,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3895,11 +4165,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.32E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38452340692374254</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2444444444444431</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -4035,11 +4320,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38452340692374254</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2444444444444431</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -4174,11 +4474,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.6000000000000004E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50525263016605881</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1333333333333326</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -4309,11 +4624,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18415484824908121</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -4445,11 +4775,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>3.0199999999999997E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.14915118633341057</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1555555555555557</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -4575,11 +4920,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>3.0199999999999997E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.26101292336039694</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999856</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -4594,7 +4954,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4763,11 +5123,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>7.980000000000001E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.8400000000000003E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0443595991278546E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636296</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -4903,11 +5278,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>7.980000000000001E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.8400000000000003E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0443595991278546E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96363636363636296</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -5042,11 +5432,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.3800000000000013E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9242768300843401E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.96363636363636274</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -5177,11 +5582,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>6.0444595891288547E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.94545454545454477</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -5313,11 +5733,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.7400000000000002E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.50680380777666223</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.85454545454545339</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>9.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -5443,11 +5878,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.22025529197788121</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -5463,7 +5913,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5632,11 +6082,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.94041054854663531</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67272727272727262</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -5772,11 +6237,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.40280000000000005</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94041054854663531</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67272727272727262</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -5911,11 +6391,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.51360000000000006</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.36360000000000003</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68770704960307694</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.96363636363636407</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -6046,11 +6541,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.4274</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.53278028897824115</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87272727272727191</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -6182,11 +6692,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.59004599441068084</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.76363636363636334</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -6312,11 +6837,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.40099999999999997</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.254</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1571962521392307</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.56363636363636382</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -6331,7 +6871,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6500,11 +7040,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.38680000000000003</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22687784974203457</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0545454545454529</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -6640,11 +7195,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22687784974203457</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0545454545454529</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -6779,11 +7349,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1065420949718874</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6545454545454541</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -6914,11 +7499,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.58539999999999992</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.2977842849895182</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0545454545454527</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>11.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -7050,11 +7650,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.46740000000000004</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.77829728668853937</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.67272727272727251</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -7180,11 +7795,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>104.85256273907912</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.89090909090908</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>119.8</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -7199,7 +7829,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7368,11 +7998,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.48E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1925435167786412</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1636363636363616</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -7508,11 +8153,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.48E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1925435167786412</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1636363636363616</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -7647,11 +8307,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.56E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.20098211316988715</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1272727272727254</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -7782,11 +8457,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.5800000000000002E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40547427681355314</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1636363636363634</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -7918,11 +8608,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26831385988909401</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.036363636363637</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>11.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -8048,11 +8753,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.16897811346986455</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0909090909090895</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -8067,7 +8787,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8236,11 +8956,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.5140000000000005E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30659562444131716</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181768</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -8376,11 +9111,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.5119999999999998E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>6.3400000000000001E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30659562444131716</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81818181818181768</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -8515,11 +9265,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.8280000000000003E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.46061684689368859</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.78181818181818108</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -8650,11 +9415,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>4.3019999999999996E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>8.3400000000000002E-3</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.53106851348905482</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8727272727272718</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -8786,11 +9566,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>4.1899999999999993E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0000999900010001E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9454545454545451</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -8916,11 +9711,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.48484591681916572</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999916</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -8935,7 +9745,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9104,11 +9914,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.9019999999999988E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.622E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35889607239439336</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090795</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -9244,11 +10069,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.9080000000000006E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.632E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35889607239439336</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090795</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -9383,11 +10223,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.22117999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.10356000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0796874645321308</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6545454545454539</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>18.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -9518,11 +10373,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.14450000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.3579999999999996E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9631135506668529</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.490909090909091</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>16.399999999999999</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -9654,11 +10524,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.12975999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>4.4819999999999999E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.30265777882666622</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98181818181818004</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10.8</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -9784,11 +10669,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.6720000000000005E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.4479999999999998E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.61030928198987833</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94545454545454388</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -9803,7 +10703,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9972,11 +10872,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28367703774011921</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -10112,11 +11027,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.28367703774011921</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -10251,11 +11181,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.29951159167227781</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -10386,11 +11331,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.29951159167227781</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -10522,11 +11482,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2696660488185233</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333361</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -10652,11 +11627,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28367703774011921</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -10672,7 +11662,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10841,11 +11831,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>7.980000000000001E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47316877721688477</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92727272727272614</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -10981,11 +11986,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.43105951447894597</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96363636363636263</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -11120,11 +12140,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28913848426041566</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8727272727272718</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>9.6</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -11255,11 +12290,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39663925933833133</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87272727272727213</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -11391,11 +12441,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.29960032361661082</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.94545454545454422</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -11521,11 +12586,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>7.8800000000000009E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.36296859299163853</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87272727272727213</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>9.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -11541,7 +12621,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11710,11 +12790,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67142106939475343</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -11850,11 +12945,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67142106939475343</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -11989,11 +13099,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.35519999999999996</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54323168670982747</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90909090909091006</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -12124,11 +13249,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.40699999999999992</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.64322351480447326</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1090909090909085</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>12.2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -12260,11 +13400,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.26980000000000004</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6533127984486407</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.80000000000000093</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -12390,11 +13545,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3403705539259162</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74545454545454515</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -12409,7 +13579,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12578,11 +13748,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74620752432624371</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -12718,11 +13903,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.37220000000000003</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74620752432624371</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -12857,11 +14057,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7012624654691662</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -12992,11 +14207,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.45339999999999997</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.35871966391681259</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>13.2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -13128,11 +14358,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.57619999999999993</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0.45180000000000009</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1100099989101188</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>9.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -13258,11 +14503,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.59671366101735024</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89090909090908998</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>9.8000000000000007</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -13276,8 +14536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8ED1BD-13AD-46BA-B595-E19089974665}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13446,11 +14706,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.24E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53925820530826107</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -13586,11 +14861,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.24E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53925820530826107</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -13725,11 +15015,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.35271868851958876</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0181818181818183</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -13860,11 +15165,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.42061942469176883</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.98181818181818203</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -13996,11 +15316,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.0799999999999998E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.64157401907326594</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9090909090909095</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -14126,11 +15461,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.47919629571532846</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.9818181818181797</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>10.8</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -14144,8 +15494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36FA8DF-C075-4C3C-BF5A-8A470E994990}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14189,11 +15539,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -14204,11 +15564,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="1">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -14219,11 +15589,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -14234,11 +15614,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -14249,11 +15639,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -14264,11 +15664,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2779999999999997E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56462300532878662</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1454545454545446</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -14279,11 +15694,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G8" s="6">
+        <v>15</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -14294,11 +15719,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -14309,11 +15744,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -14324,11 +15769,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -14339,11 +15794,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G12" s="2">
+        <v>17</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -14354,11 +15819,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.2779999999999997E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56462300532878662</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1454545454545446</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -14369,11 +15849,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="1">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.21054631368969401</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -14384,11 +15874,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -14399,11 +15899,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -14414,11 +15924,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="1">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>11</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -14429,10 +15949,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.226445</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.6363636363636398</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -14442,11 +15973,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.6760000000000003E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.1399999999999988E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.775658554025906</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1090909090909096</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -14457,10 +16003,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -14470,10 +16027,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="1">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -14483,10 +16051,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="6">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.50004499505054401</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -14496,10 +16075,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -14509,10 +16099,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.5316549838006499</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -14522,11 +16123,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>7.28E-3</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8129266212014471</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0181818181818179</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -14537,10 +16153,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -14550,10 +16177,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -14563,10 +16201,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="1">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.4001799775028099</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -14576,10 +16225,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="6">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -14589,11 +16249,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.0308030128036401</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>22</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -14604,11 +16274,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>3.8299999999999994E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.214732115439886</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1090909090909082</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>12.2</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -14619,7 +16304,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="C32">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F32">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -14628,7 +16327,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="C33">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -14637,7 +16350,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="C34">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E34">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F34">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -14646,7 +16373,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E35">
+        <v>2.5316549838006499</v>
+      </c>
+      <c r="F35">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -14655,6 +16396,21 @@
       <c r="B36">
         <v>5</v>
       </c>
+      <c r="C36">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E36">
+        <v>1.24155930044537</v>
+      </c>
+      <c r="F36">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -14663,11 +16419,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>3.1740000000000004E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94241714292860335</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4545454545454537</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -14681,8 +16452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5F05-2F28-4103-A8BE-1B1C20855D90}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14726,11 +16497,21 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="1">
+        <v>8.43E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -14741,11 +16522,21 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="1">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G3" s="2">
+        <v>17</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -14756,11 +16547,21 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="1">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0648361146329099</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -14771,11 +16572,21 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="1">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>11</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -14786,11 +16597,21 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -14801,11 +16622,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.5580000000000003E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.3259999999999996E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.60156464989811065</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.2545454545454557</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>13.8</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -14816,11 +16652,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="6">
+        <v>8.43E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G8" s="6">
+        <v>12</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -14831,11 +16677,21 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="1">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G9" s="2">
+        <v>17</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -14846,11 +16702,21 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0648361146329099</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -14861,11 +16727,21 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="1">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>11</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -14876,11 +16752,21 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="1">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.0004999500050003E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -14891,11 +16777,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.5580000000000003E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>2.3299999999999998E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.60156464989811065</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>1.2545454545454557</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>13.8</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -14906,11 +16807,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="1">
+        <v>0.2059</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -14921,11 +16832,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G15" s="6">
+        <v>16</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -14936,11 +16857,21 @@
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.5970431132882794</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.8181818181818201</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -14951,11 +16882,21 @@
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.160019998500113</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -14966,10 +16907,21 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.89298213535759297</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -14979,11 +16931,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.21023999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>9.5979999999999996E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>2.0485435669077829</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.6181818181818179</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>17.8</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -14994,10 +16961,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.1343</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.1671666266698701E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -15007,10 +16985,21 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.346198843004067</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -15020,10 +17009,21 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="6">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.6335783210839501</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -15033,10 +17033,21 @@
       <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -15046,10 +17057,21 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="1">
+        <v>0.1381</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -15059,11 +17081,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.13847999999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>5.0819999999999997E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.40428976607094319</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.2545454545454537</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>13.8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -15074,10 +17111,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="1">
+        <v>0.1203</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -15087,10 +17135,21 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1">
+        <v>0.1217</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -15100,10 +17159,21 @@
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="1">
+        <v>0.1263</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.59267258739293005</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -15113,10 +17183,21 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="6">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.5626249850017999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -15126,11 +17207,21 @@
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="1">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.94125646138929298</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -15141,11 +17232,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.12376000000000001</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31" si="16">AVERAGE(D26:D30)</f>
+        <v>4.2639999999999997E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31" si="17">AVERAGE(E26:E30)</f>
+        <v>0.73784532423539062</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ref="F31" si="18">AVERAGE(F26:F30)</f>
+        <v>0.96363636363636174</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31" si="19">AVERAGE(G26:G30)</f>
+        <v>10.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -15156,7 +17262,21 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="C32">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.12E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -15165,7 +17285,21 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="C33">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.5316549838006499</v>
+      </c>
+      <c r="F33">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -15174,7 +17308,21 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="C34">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.46E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.6335783210839501</v>
+      </c>
+      <c r="F34">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -15183,7 +17331,21 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="C35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -15200,11 +17362,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.3549999999999999E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="20">AVERAGE(D32:D36)</f>
+        <v>2.2624999999999999E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="20"/>
+        <v>1.04130832622115</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="20"/>
+        <v>1.4090909090909098</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="20"/>
+        <v>15.5</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -15219,7 +17396,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15388,11 +17565,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.4600000000000002E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28427349661297902</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91111111111111032</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -15528,11 +17720,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.4600000000000002E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.28427349661297902</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91111111111111032</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -15667,11 +17874,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>9.2800000000000007E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.0800000000000003E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.41285591070792887</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -15802,11 +18024,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.5200000000000002E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.67959183709225757</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -15938,11 +18175,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73293005291028734</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -16068,11 +18320,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.34E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78317180992995983</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.71111111111111125</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -16087,7 +18354,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16256,11 +18523,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.16060000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21425967714353952</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2222222222222197</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -16396,11 +18678,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.16060000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21425967714353952</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2222222222222197</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -16535,11 +18832,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.34700000000000003</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.20139999999999997</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2262331844666883</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68888888888888844</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -16670,11 +18982,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.71620877330958987</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -16806,11 +19133,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25832761793967074</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95555555555555638</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -16936,11 +19278,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>5.439999999999999E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.24617337585424801</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.8888888888888884</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -16954,8 +19311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703A7CD-3163-490B-867C-E4EA0566EEE2}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17124,11 +19481,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20692307117022707</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75555555555555576</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -17264,11 +19636,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20692307117022707</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75555555555555576</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -17403,11 +19790,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19442185054160332</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -17538,11 +19940,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.19442185054160332</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -17674,11 +20091,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33550548526517687</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -17804,11 +20236,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.24776006635963316</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.73333333333333361</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -17823,7 +20270,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17992,11 +20439,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45163002105490052</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -18132,11 +20594,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45163002105490052</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -18271,11 +20748,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0860339437766655</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.91111111111111232</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -18406,11 +20898,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.08E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2342313310293469</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -18542,11 +21049,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4880311200158805</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95555555555555594</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -18672,11 +21194,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.58337971649099285</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84444444444444355</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -18691,7 +21228,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18860,11 +21397,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2502441287046902E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0666666666666655</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -19000,11 +21552,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2502441287046902E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666655</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -19139,11 +21706,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14477655239479059</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.91111111111111054</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -19274,11 +21856,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.1510848553819967</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88888888888888862</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -19410,11 +22007,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>3.0800000000000003E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.52337361327337162</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -19540,11 +22152,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.29526494894863059</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88888888888888817</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -19559,7 +22186,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19728,11 +22355,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5839436446653549E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888873</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -19868,11 +22510,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5839436446653549E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888873</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -20007,11 +22664,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37475578994919784</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999971</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -20142,11 +22814,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.37475578994919784</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999971</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -20278,11 +22965,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.23058830225174817</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111114</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -20408,11 +23110,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.15358485535219726</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
@@ -20428,7 +23145,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G38"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20597,11 +23314,26 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="4">
+        <f>AVERAGE(C2:C6)</f>
+        <v>6.54E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1399317299536697</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2444444444444422</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
     </row>
@@ -20737,11 +23469,26 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4">
+        <f>AVERAGE(C8:C12)</f>
+        <v>6.54E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1399317299536697</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2444444444444422</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
     </row>
@@ -20876,11 +23623,26 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.06E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28830115200839795</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2444444444444458</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
     </row>
@@ -21011,11 +23773,26 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="4">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.226605720272883</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.044444444444443</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="3"/>
     </row>
@@ -21147,11 +23924,26 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C26:C30)</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5840657105076703E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.91111111111111087</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
@@ -21277,11 +24069,26 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C32:C36)</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.26E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>9.1438336576760787E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0222222222222213</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>

--- a/Tables/Table3_Black_T1EandPower.xlsx
+++ b/Tables/Table3_Black_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D013A77-7142-4070-9BEC-5674A4E163F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C566229-2BF7-4BD1-B7F6-68EF44D294C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1440,8 +1440,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2398,8 +2398,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -3038,7 +3038,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -3356,8 +3356,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -4314,8 +4314,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -4954,7 +4954,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -5272,8 +5272,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -5913,7 +5913,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -6231,8 +6231,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -6871,7 +6871,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -7189,8 +7189,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -7829,7 +7829,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -8147,8 +8147,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -8787,7 +8787,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -9105,8 +9105,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -9745,7 +9745,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -10063,8 +10063,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -10702,8 +10702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD4CAD-C54D-4679-AC84-53A404B23779}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10742,7 +10742,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -10922,7 +10922,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11021,8 +11021,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -11662,7 +11662,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -11776,7 +11776,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -11980,8 +11980,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -12621,7 +12621,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12660,7 +12660,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -12710,7 +12710,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -12939,8 +12939,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -13579,7 +13579,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13618,7 +13618,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -13643,7 +13643,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -13668,7 +13668,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -13718,7 +13718,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -13743,7 +13743,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -13897,8 +13897,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -14537,7 +14537,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -14651,7 +14651,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -14731,7 +14731,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -14855,8 +14855,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -15495,7 +15495,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -15559,7 +15559,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -15584,7 +15584,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -15659,7 +15659,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -15689,7 +15689,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -15714,7 +15714,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -15739,7 +15739,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -15789,7 +15789,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -15813,8 +15813,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -16453,7 +16453,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -16617,7 +16617,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -16722,7 +16722,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -16747,7 +16747,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -16771,8 +16771,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -17396,7 +17396,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -17460,7 +17460,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -17485,7 +17485,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -17510,7 +17510,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -17590,7 +17590,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -17640,7 +17640,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -17714,8 +17714,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -18354,7 +18354,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18393,7 +18393,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -18418,7 +18418,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -18468,7 +18468,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -18648,7 +18648,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -18672,8 +18672,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -19311,8 +19311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703A7CD-3163-490B-867C-E4EA0566EEE2}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -19426,7 +19426,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -19506,7 +19506,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -19531,7 +19531,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -19606,7 +19606,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -19630,8 +19630,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -20270,7 +20270,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20309,7 +20309,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -20334,7 +20334,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -20384,7 +20384,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -20434,7 +20434,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -20464,7 +20464,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -20489,7 +20489,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -20514,7 +20514,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -20564,7 +20564,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -20588,8 +20588,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -21228,7 +21228,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -21292,7 +21292,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -21317,7 +21317,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -21342,7 +21342,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -21392,7 +21392,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -21422,7 +21422,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -21447,7 +21447,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -21497,7 +21497,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -21522,7 +21522,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -21546,8 +21546,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -22186,7 +22186,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22225,7 +22225,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -22250,7 +22250,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -22275,7 +22275,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -22300,7 +22300,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -22325,7 +22325,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -22350,7 +22350,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -22380,7 +22380,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -22405,7 +22405,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -22455,7 +22455,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -22480,7 +22480,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -22504,8 +22504,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -23145,7 +23145,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23184,7 +23184,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -23209,7 +23209,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -23234,7 +23234,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -23259,7 +23259,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -23284,7 +23284,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -23309,7 +23309,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -23339,7 +23339,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -23364,7 +23364,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -23389,7 +23389,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -23414,7 +23414,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -23463,8 +23463,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
